--- a/analytikI/data.xlsx
+++ b/analytikI/data.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>50000.0</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>60000</t>
+          <t>60000.0</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>55000</t>
+          <t>55000.0</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>70000</t>
+          <t>70000.0</t>
         </is>
       </c>
     </row>
@@ -547,11 +547,7 @@
           <t>Brown</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>45000</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
